--- a/src/main/resources/noReceiveAmountOffice.xlsx
+++ b/src/main/resources/noReceiveAmountOffice.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>开票量</t>
   </si>
@@ -29,15 +29,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.noReceiveTotalInvoice}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>开票单位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{{$fe:list t.key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.badInvoice}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.noReceiveTotalInvoice</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -132,11 +136,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -151,6 +152,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="57" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:DU3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -468,42 +475,167 @@
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:125" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:125" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="7"/>
+    <row r="3" spans="1:125" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+      <c r="BK3"/>
+      <c r="BL3"/>
+      <c r="BM3"/>
+      <c r="BN3"/>
+      <c r="BO3"/>
+      <c r="BP3"/>
+      <c r="BQ3"/>
+      <c r="BR3"/>
+      <c r="BS3"/>
+      <c r="BT3"/>
+      <c r="BU3"/>
+      <c r="BV3"/>
+      <c r="BW3"/>
+      <c r="BX3"/>
+      <c r="BY3"/>
+      <c r="BZ3"/>
+      <c r="CA3"/>
+      <c r="CB3"/>
+      <c r="CC3"/>
+      <c r="CD3"/>
+      <c r="CE3"/>
+      <c r="CF3"/>
+      <c r="CG3"/>
+      <c r="CH3"/>
+      <c r="CI3"/>
+      <c r="CJ3"/>
+      <c r="CK3"/>
+      <c r="CL3"/>
+      <c r="CM3"/>
+      <c r="CN3"/>
+      <c r="CO3"/>
+      <c r="CP3"/>
+      <c r="CQ3"/>
+      <c r="CR3"/>
+      <c r="CS3"/>
+      <c r="CT3"/>
+      <c r="CU3"/>
+      <c r="CV3"/>
+      <c r="CW3"/>
+      <c r="CX3"/>
+      <c r="CY3"/>
+      <c r="CZ3"/>
+      <c r="DA3"/>
+      <c r="DB3"/>
+      <c r="DC3"/>
+      <c r="DD3"/>
+      <c r="DE3"/>
+      <c r="DF3"/>
+      <c r="DG3"/>
+      <c r="DH3"/>
+      <c r="DI3"/>
+      <c r="DJ3"/>
+      <c r="DK3"/>
+      <c r="DL3"/>
+      <c r="DM3"/>
+      <c r="DN3"/>
+      <c r="DO3"/>
+      <c r="DP3"/>
+      <c r="DQ3"/>
+      <c r="DR3"/>
+      <c r="DS3"/>
+      <c r="DT3"/>
+      <c r="DU3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/noReceiveAmountOffice.xlsx
+++ b/src/main/resources/noReceiveAmountOffice.xlsx
@@ -25,10 +25,6 @@
     <t>坏账准备</t>
   </si>
   <si>
-    <t>t.totalInvoice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>开票单位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -41,7 +37,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.noReceiveTotalInvoice</t>
+    <t>fn:(t.totalInvoice;0.00)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn:(t.totnoReceiveTotalInvoicefn;0.00)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -467,20 +467,20 @@
   <dimension ref="A1:DU3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="57.75" customWidth="1"/>
     <col min="4" max="4" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:125" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -494,16 +494,16 @@
     </row>
     <row r="2" spans="1:125" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:125" s="5" customFormat="1" x14ac:dyDescent="0.15">

--- a/src/main/resources/noReceiveAmountOffice.xlsx
+++ b/src/main/resources/noReceiveAmountOffice.xlsx
@@ -33,15 +33,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.badInvoice}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fn:(t.totalInvoice;0.00)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fn:(t.totnoReceiveTotalInvoicefn;0.00)</t>
+    <t>fn:(t.badInvoice;0.00)}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn:(t.noReceiveTotalInvoice;0.00)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +467,7 @@
   <dimension ref="A1:DU3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -475,7 +475,7 @@
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="3" width="57.75" customWidth="1"/>
-    <col min="4" max="4" width="26.25" customWidth="1"/>
+    <col min="4" max="4" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:125" x14ac:dyDescent="0.15">
@@ -497,13 +497,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:125" s="5" customFormat="1" x14ac:dyDescent="0.15">
